--- a/codeTest.xlsx
+++ b/codeTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{71CE4FA0-C2D9-4167-8035-6E5A160FD0C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E0A0830D-DC9C-4406-A0DF-230960BA2EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="2568" xr2:uid="{510D8213-1832-4ABE-95FE-A247AB3D33C3}"/>
   </bookViews>
@@ -50,24 +50,15 @@
     <t>mobileNum</t>
   </si>
   <si>
-    <t>Umesh</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>Karkar</t>
-  </si>
-  <si>
     <t>Nande</t>
   </si>
   <si>
     <t>CustomerDetails</t>
   </si>
   <si>
-    <t>7387777372</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -77,12 +68,6 @@
     <t>9977685644</t>
   </si>
   <si>
-    <t>umesh</t>
-  </si>
-  <si>
-    <t>karkar</t>
-  </si>
-  <si>
     <t>refAddress</t>
   </si>
   <si>
@@ -93,6 +78,21 @@
   </si>
   <si>
     <t>12312</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>alex@1234</t>
+  </si>
+  <si>
+    <t>Testfirst</t>
+  </si>
+  <si>
+    <t>Testlast</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A593C0A-1176-496B-B5B5-207312F3870F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +462,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
@@ -505,15 +505,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
@@ -545,15 +545,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/codeTest.xlsx
+++ b/codeTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E0A0830D-DC9C-4406-A0DF-230960BA2EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B94CB66E-6FDF-42F8-B408-9957226DF21D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="2568" xr2:uid="{510D8213-1832-4ABE-95FE-A247AB3D33C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="3636" xr2:uid="{510D8213-1832-4ABE-95FE-A247AB3D33C3}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/codeTest.xlsx
+++ b/codeTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B94CB66E-6FDF-42F8-B408-9957226DF21D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5075597B-D781-49C0-B417-1D44AC4850A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="3636" xr2:uid="{510D8213-1832-4ABE-95FE-A247AB3D33C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16776" windowHeight="3540" xr2:uid="{510D8213-1832-4ABE-95FE-A247AB3D33C3}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/codeTest.xlsx
+++ b/codeTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5075597B-D781-49C0-B417-1D44AC4850A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E76A2D0-0CBE-422B-8A16-8A2EE4D41A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16776" windowHeight="3540" xr2:uid="{510D8213-1832-4ABE-95FE-A247AB3D33C3}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>alex@1234</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Testlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abc</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
